--- a/Profile_RelatedPerson.xls.xlsx
+++ b/Profile_RelatedPerson.xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\FHIR\new ons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\FHIR\new ons\latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,55 @@
     <author>Gupta, Vivek Raj</author>
   </authors>
   <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+which HL7 to map</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+which HL7 to map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,6 +125,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+which HL7 to map</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -98,6 +170,30 @@
           </rPr>
           <t xml:space="preserve">
 which HL7 to map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+which one to map.</t>
         </r>
       </text>
     </comment>
@@ -125,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,11 +241,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-these values can be extracted from other HL7 fields , which are not given in mapping HL7 site</t>
+which HL7 component to map to</t>
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +293,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+which HL7 component to map to</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,58 +338,154 @@
           </rPr>
           <t xml:space="preserve">
 not given in mappings, done by own</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not given in mappings, done by own</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure which component to map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure which component to map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure which component to map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure which component to map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gupta, Vivek Raj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not sure which component to map</t>
         </r>
       </text>
     </comment>
     <comment ref="C52" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gupta, Vivek Raj:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-not sure which component to map</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C54" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gupta, Vivek Raj:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-not sure which component to map</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -348,54 +564,6 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">        RelatedPerson.patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.birthDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.deceased[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.maritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.multipleBirth[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.generalPractitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RelatedPerson.patient.managingOrganization</t>
-  </si>
-  <si>
     <t xml:space="preserve">RelatedPerson.relationship </t>
   </si>
   <si>
@@ -522,9 +690,6 @@
     <t xml:space="preserve">        RelatedPerson.Period.end</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>OBX.5 - needs a profile</t>
   </si>
   <si>
@@ -550,12 +715,6 @@
   </si>
   <si>
     <t>NK1.NextofKinAssociatedPartysIdentifiers</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.period.startdate</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.period.enddate</t>
   </si>
   <si>
     <t>NK1.33.7</t>
@@ -641,70 +800,106 @@
     <t>NK1.Name.NameValidityRange.RangeEndDateTime</t>
   </si>
   <si>
-    <t>PID.3.1</t>
+    <t>NK1.Address.AddressType</t>
+  </si>
+  <si>
+    <t>NK1.4.7</t>
+  </si>
+  <si>
+    <t>NK1.Address.City</t>
+  </si>
+  <si>
+    <t>NK1.4.3</t>
+  </si>
+  <si>
+    <t>NK1.Address.StateOrProvince</t>
+  </si>
+  <si>
+    <t>KN1.4.4</t>
+  </si>
+  <si>
+    <t>NK1.Address.StreetAddress</t>
+  </si>
+  <si>
+    <t>NK1.4.1</t>
+  </si>
+  <si>
+    <t>NK1.Address.CountyParishCode</t>
+  </si>
+  <si>
+    <t>NK1.4.9</t>
+  </si>
+  <si>
+    <t>NK1.Address.ZipOrPostalCode</t>
+  </si>
+  <si>
+    <t>NK1.Address.ZipTheCountry</t>
+  </si>
+  <si>
+    <t>NK1.4.5</t>
+  </si>
+  <si>
+    <t>NK1.4.6</t>
+  </si>
+  <si>
+    <t>RelatedPerson.address.period.startdate</t>
+  </si>
+  <si>
+    <t>RelatedPerson.address.period.enddate</t>
+  </si>
+  <si>
+    <t>NK1.Address.AddressValidityCode.RangeStartDateTime</t>
+  </si>
+  <si>
+    <t>NK1.Address.AddressValidityCode.RangeEndDateTime</t>
+  </si>
+  <si>
+    <t>NK1.4.12.1</t>
+  </si>
+  <si>
+    <t>NK1.4.12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     RelatedPerson.identifier.period.startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   RelatedPerson.identifier.period.enddate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RelatedPerson.patient.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RelatedPerson.patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     RelatedPerson.patient.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     RelatedPerson.patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     RelatedPerson.patient.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     RelatedPerson.patient.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     RelatedPerson.patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       RelatedPerson.patient.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       RelatedPerson.patient.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    RelatedPerson.patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RelatedPerson.patient.display</t>
   </si>
   <si>
     <t>PID.PatientIdentifierList.ID</t>
-  </si>
-  <si>
-    <t>NK1.Address.AddressType</t>
-  </si>
-  <si>
-    <t>NK1.4.7</t>
-  </si>
-  <si>
-    <t>NK1.Address.City</t>
-  </si>
-  <si>
-    <t>NK1.4.3</t>
-  </si>
-  <si>
-    <t>NK1.Address.StateOrProvince</t>
-  </si>
-  <si>
-    <t>KN1.4.4</t>
-  </si>
-  <si>
-    <t>NK1.Address.StreetAddress</t>
-  </si>
-  <si>
-    <t>NK1.4.1</t>
-  </si>
-  <si>
-    <t>NK1.Address.CountyParishCode</t>
-  </si>
-  <si>
-    <t>NK1.4.9</t>
-  </si>
-  <si>
-    <t>NK1.Address.ZipOrPostalCode</t>
-  </si>
-  <si>
-    <t>NK1.Address.ZipTheCountry</t>
-  </si>
-  <si>
-    <t>NK1.4.5</t>
-  </si>
-  <si>
-    <t>NK1.4.6</t>
-  </si>
-  <si>
-    <t>RelatedPerson.address.period.startdate</t>
-  </si>
-  <si>
-    <t>RelatedPerson.address.period.enddate</t>
-  </si>
-  <si>
-    <t>NK1.Address.AddressValidityCode.RangeStartDateTime</t>
-  </si>
-  <si>
-    <t>NK1.Address.AddressValidityCode.RangeEndDateTime</t>
-  </si>
-  <si>
-    <t>NK1.4.12.1</t>
-  </si>
-  <si>
-    <t>NK1.4.12.2</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1495,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,9 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1320,15 +1512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,6 +1532,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1670,33 +1866,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="1" max="1" width="60.81640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="52.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1713,916 +1909,778 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>82</v>
+      <c r="B3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>93</v>
+      <c r="C5" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>84</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>91</v>
+      <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="10"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="10"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="25"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="4"/>
+      <c r="A36" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="10"/>
+      <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="A41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="10"/>
+      <c r="A47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
+      <c r="A48" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="22" t="s">
+      <c r="A50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="4"/>
+      <c r="A52" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>55</v>
+      <c r="A53" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
-        <v>56</v>
+      <c r="A54" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>57</v>
+      <c r="A55" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
-        <v>59</v>
+      <c r="A57" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
-        <v>60</v>
+      <c r="A58" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="17"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="21"/>
+      <c r="A61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="10"/>
+      <c r="A62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="A63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="21"/>
+      <c r="A64" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="10"/>
+      <c r="A65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="10"/>
+      <c r="A66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="10"/>
+      <c r="A67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="10"/>
+      <c r="A69" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="10"/>
+      <c r="A70" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
